--- a/economic_model/cost_mp_bp.xlsx
+++ b/economic_model/cost_mp_bp.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crazyray-xps13\Desktop\school\senior design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crazyray-xps13\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>fuel salt</t>
   </si>
@@ -98,9 +98,6 @@
     <t>price $/m^3</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>$/m^3</t>
   </si>
   <si>
@@ -126,12 +123,18 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>UF6</t>
+  </si>
+  <si>
+    <t>152700/m^3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,6 +265,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -297,6 +317,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,7 +489,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -488,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>18</v>
@@ -500,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
@@ -601,8 +638,8 @@
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
+      <c r="B4" s="1">
+        <v>152700</v>
       </c>
       <c r="C4" s="1">
         <v>1036</v>
@@ -612,6 +649,9 @@
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="F4" s="1">
+        <v>26017</v>
       </c>
       <c r="G4" s="1">
         <v>1110</v>
@@ -639,6 +679,12 @@
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>14</v>
       </c>
@@ -668,10 +714,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -689,9 +735,6 @@
         <f>E9*F2</f>
         <v>1768.8000000000002</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -708,31 +751,21 @@
         <f>E10*F3</f>
         <v>738</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="1" t="e">
-        <f>I11*J2</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="B11" s="1">
+        <f>B4*A11</f>
+        <v>610.80000000000007</v>
+      </c>
       <c r="E11" s="1">
         <v>0.15</v>
       </c>
       <c r="F11" s="1">
         <f>E11*F4</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="1" t="e">
-        <f>I11*J3</f>
-        <v>#VALUE!</v>
+        <v>3902.5499999999997</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -741,70 +774,44 @@
       </c>
       <c r="B12" s="1">
         <f>B9+B10+B11</f>
-        <v>3163.8</v>
+        <v>3774.6000000000004</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="1">
         <f>F9+F10+F11</f>
-        <v>2506.8000000000002</v>
+        <v>6409.35</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="J12" s="1" t="e">
-        <f>I12*J4</f>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <f>B12*(0.308)^3</f>
-        <v>92.440262745600009</v>
+        <v>110.28668555520001</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1">
         <f>F12*(0.308)^3</f>
-        <v>73.243963161600007</v>
+        <v>187.26910614720001</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="1" t="e">
-        <f>J10+J11+J12</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K13" s="1" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="J14" s="1" t="e">
-        <f>J13*(0.308)^3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -823,7 +830,7 @@
         <v>1255.848</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -853,12 +860,16 @@
       <c r="A18" s="1">
         <v>2.2000000000000001E-3</v>
       </c>
+      <c r="B18" s="1">
+        <f>B4*A18</f>
+        <v>335.94</v>
+      </c>
       <c r="E18" s="1">
         <v>0.27</v>
       </c>
       <c r="F18" s="1">
         <f>E18*F11</f>
-        <v>0</v>
+        <v>1053.6885</v>
       </c>
       <c r="I18" s="1">
         <v>0.61099999999999999</v>
@@ -874,20 +885,20 @@
       </c>
       <c r="B19" s="1">
         <f>B16+B17+B18</f>
-        <v>1601.0124000000001</v>
+        <v>1936.9524000000001</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="1">
         <f>F16+F17+F18</f>
-        <v>1270.6079999999999</v>
+        <v>2324.2964999999999</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
@@ -900,17 +911,17 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
         <f>B19*(0.308)^3</f>
-        <v>46.778559616588801</v>
+        <v>56.594092161868808</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="1">
         <f>F19*(0.308)^3</f>
-        <v>37.124766852096002</v>
+        <v>67.911555458207999</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>22</v>
@@ -920,7 +931,7 @@
         <v>2068.2280000000001</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -929,15 +940,15 @@
         <v>60.429717345536005</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -956,7 +967,7 @@
         <v>891.65207999999996</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -991,7 +1002,7 @@
       </c>
       <c r="F25" s="1">
         <f>E25*F18</f>
-        <v>0</v>
+        <v>284.49589500000002</v>
       </c>
       <c r="I25" s="1">
         <v>0.61099999999999999</v>
@@ -1010,17 +1021,17 @@
         <v>869.40237360000003</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F26" s="1">
         <f>F23+F24+F25</f>
-        <v>891.94727999999998</v>
+        <v>1176.4431749999999</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -1035,14 +1046,14 @@
         <v>25.402295924910646</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" s="1">
         <f>F26*(0.308)^3</f>
-        <v>26.06101552513536</v>
+        <v>34.373448448785595</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>22</v>
@@ -1052,7 +1063,7 @@
         <v>2068.2280000000001</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -1061,15 +1072,15 @@
         <v>60.429717345536005</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -1088,7 +1099,7 @@
         <v>633.07297679999999</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -1123,7 +1134,7 @@
       </c>
       <c r="F32" s="1">
         <f>E32*F25</f>
-        <v>0</v>
+        <v>76.813891650000016</v>
       </c>
       <c r="I32" s="1">
         <v>0.08</v>
@@ -1142,20 +1153,20 @@
         <v>522.38882489520006</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F33" s="1">
         <f>F30+F31+F32</f>
-        <v>633.07888079999998</v>
+        <v>709.89277244999994</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -1167,14 +1178,14 @@
         <v>15.263215193336345</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F34" s="1">
         <f>F33*(0.308)^3</f>
-        <v>18.497369644049048</v>
+        <v>20.741726533434612</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>22</v>
@@ -1184,7 +1195,7 @@
         <v>2095.84</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -1193,7 +1204,7 @@
         <v>61.236487854080004</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
